--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s1_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1298.7098189863</v>
+        <v>418.6270528881508</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.82761200999286</v>
+        <v>38.6270528881508</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.82565717778139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.367864154090677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>796.2099999999974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.13</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.685690984262621</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.31116002552197</v>
+        <v>17.41539744121283</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.01720891576281</v>
+        <v>19.01720891576282</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.175878838003</v>
+        <v>9.280116253693862</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.94576542652248</v>
+        <v>25.04208713267367</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,118 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1221,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1243,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1254,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1265,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>110.9400000000002</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -1276,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>104.1450000000002</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -1287,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>108.7900000000002</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -1298,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>115.8600000000002</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -1309,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>112.4700000000002</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -1320,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>285.6799999999996</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -1331,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>282.4149999999997</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
@@ -1342,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>267.9049999999997</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20">
@@ -1353,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>277.3049999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -1364,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>284.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -1375,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1386,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>65.61000000000051</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1397,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>67.42000000000051</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1408,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.04500000000051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1419,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>66.6350000000005</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1430,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>204.6250000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -1441,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>199.3150000000007</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -1452,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>199.9050000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -1463,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>201.0650000000006</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1474,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>207.0800000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -1485,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>285.6799999999996</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -1496,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>282.4149999999997</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34">
@@ -1507,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>267.9049999999997</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35">
@@ -1518,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>277.3049999999996</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -1529,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>284.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -1540,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>110.9400000000002</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -1551,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>104.1450000000002</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -1562,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>108.7900000000002</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -1573,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>115.8600000000002</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
@@ -1584,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>112.4700000000002</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>85.67999999999961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1642,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>82.41499999999974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1653,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>67.90499999999975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1664,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>77.30499999999961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1675,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>84.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1777,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1788,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1799,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1810,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1821,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1832,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1843,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1854,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1865,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1876,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1887,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1898,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1909,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1920,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1931,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1942,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1953,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1964,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1975,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -1986,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1997,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2008,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2019,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2030,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2041,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,94 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
